--- a/bioinfo-m2/Results/Total_Organelles.xlsx
+++ b/bioinfo-m2/Results/Total_Organelles.xlsx
@@ -32,7 +32,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -480,31 +480,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="6">
-        <v>1326816.0</v>
+        <v>1329520.0</v>
       </c>
       <c r="C2" t="n" s="7">
-        <v>3.9943023174742054</v>
+        <v>3.9942021700433816</v>
       </c>
       <c r="D2" t="n" s="6">
-        <v>1183541.0</v>
+        <v>1185906.0</v>
       </c>
       <c r="E2" t="n" s="7">
-        <v>3.562981271800867</v>
+        <v>3.5627507060198167</v>
       </c>
       <c r="F2" t="n" s="6">
-        <v>1270064.0</v>
+        <v>1272591.0</v>
       </c>
       <c r="G2" t="n" s="7">
-        <v>3.823453725716723</v>
+        <v>3.823173576762799</v>
       </c>
       <c r="H2" t="n" s="6">
-        <v>62972.0</v>
+        <v>63101.0</v>
       </c>
       <c r="I2" t="n" s="6">
-        <v>41853.0</v>
+        <v>41940.0</v>
       </c>
       <c r="J2" t="n" s="6">
-        <v>58142.0</v>
+        <v>58240.0</v>
       </c>
       <c r="M2" t="s" s="3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="8">
-        <v>453343.0</v>
+        <v>454085.0</v>
       </c>
       <c r="C3" t="n" s="9">
-        <v>1.3647627067435943</v>
+        <v>1.3641820298936074</v>
       </c>
       <c r="D3" t="n" s="8">
-        <v>502149.0</v>
+        <v>503110.0</v>
       </c>
       <c r="E3" t="n" s="9">
-        <v>1.5116903281369496</v>
+        <v>1.511465080458004</v>
       </c>
       <c r="F3" t="n" s="8">
-        <v>745314.0</v>
+        <v>746617.0</v>
       </c>
       <c r="G3" t="n" s="9">
-        <v>2.2437244029661763</v>
+        <v>2.243019466868704</v>
       </c>
       <c r="H3" t="n" s="10">
-        <v>27425.0</v>
+        <v>27456.0</v>
       </c>
       <c r="I3" t="n" s="10">
-        <v>39782.0</v>
+        <v>39875.0</v>
       </c>
       <c r="J3" t="n" s="10">
-        <v>82404.0</v>
+        <v>82555.0</v>
       </c>
     </row>
     <row r="4">
@@ -550,37 +550,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>398625.0</v>
+        <v>399391.0</v>
       </c>
       <c r="C4" t="n" s="7">
-        <v>1.2000373535615756</v>
+        <v>1.1998679214271288</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>854233.0</v>
+        <v>856004.0</v>
       </c>
       <c r="E4" t="n" s="7">
-        <v>2.571618710931239</v>
+        <v>2.5716446795578967</v>
       </c>
       <c r="F4" t="n" s="6">
-        <v>483169.0</v>
+        <v>484309.0</v>
       </c>
       <c r="G4" t="n" s="7">
-        <v>1.4545521431997313</v>
+        <v>1.4549822934378875</v>
       </c>
       <c r="H4" t="n" s="6">
-        <v>28124.0</v>
+        <v>28164.0</v>
       </c>
       <c r="I4" t="n" s="6">
-        <v>83418.0</v>
+        <v>83559.0</v>
       </c>
       <c r="J4" t="n" s="6">
-        <v>37143.0</v>
+        <v>37228.0</v>
       </c>
       <c r="M4" t="s" s="3">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="1">
-        <v>8.3075124E7</v>
+        <v>8.3246507E7</v>
       </c>
     </row>
     <row r="5">
@@ -588,31 +588,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="8">
-        <v>1143733.0</v>
+        <v>1146784.0</v>
       </c>
       <c r="C5" t="n" s="9">
-        <v>3.4431416055215838</v>
+        <v>3.4452186814572396</v>
       </c>
       <c r="D5" t="n" s="8">
-        <v>727469.0</v>
+        <v>729256.0</v>
       </c>
       <c r="E5" t="n" s="9">
-        <v>2.190003069446436</v>
+        <v>2.1908627908697547</v>
       </c>
       <c r="F5" t="n" s="8">
-        <v>1358829.0</v>
+        <v>1361375.0</v>
       </c>
       <c r="G5" t="n" s="9">
-        <v>4.090675590097765</v>
+        <v>4.089902355167887</v>
       </c>
       <c r="H5" t="n" s="10">
-        <v>45915.0</v>
+        <v>46013.0</v>
       </c>
       <c r="I5" t="n" s="10">
-        <v>18034.0</v>
+        <v>18071.0</v>
       </c>
       <c r="J5" t="n" s="10">
-        <v>79577.0</v>
+        <v>79702.0</v>
       </c>
     </row>
     <row r="6">
@@ -620,37 +620,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>681526.0</v>
+        <v>682753.0</v>
       </c>
       <c r="C6" t="n" s="7">
-        <v>2.051694342862104</v>
+        <v>2.0511564430799303</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>419404.0</v>
+        <v>420162.0</v>
       </c>
       <c r="E6" t="n" s="7">
-        <v>1.2625913232565418</v>
+        <v>1.2622690686637037</v>
       </c>
       <c r="F6" t="n" s="6">
-        <v>527600.0</v>
+        <v>528724.0</v>
       </c>
       <c r="G6" t="n" s="7">
-        <v>1.5883090818164622</v>
+        <v>1.5884157802470191</v>
       </c>
       <c r="H6" t="n" s="6">
-        <v>76237.0</v>
+        <v>76361.0</v>
       </c>
       <c r="I6" t="n" s="6">
-        <v>28861.0</v>
+        <v>28906.0</v>
       </c>
       <c r="J6" t="n" s="6">
-        <v>50319.0</v>
+        <v>50430.0</v>
       </c>
       <c r="M6" t="s" s="3">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="1">
-        <v>453343.0</v>
+        <v>454085.0</v>
       </c>
     </row>
     <row r="7">
@@ -658,31 +658,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="8">
-        <v>384594.0</v>
+        <v>385074.0</v>
       </c>
       <c r="C7" t="n" s="9">
-        <v>1.1577978449812745</v>
+        <v>1.1568561634479249</v>
       </c>
       <c r="D7" t="n" s="8">
-        <v>314566.0</v>
+        <v>314943.0</v>
       </c>
       <c r="E7" t="n" s="9">
-        <v>0.946982628185514</v>
+        <v>0.9461655439857788</v>
       </c>
       <c r="F7" t="n" s="8">
-        <v>414472.0</v>
+        <v>415329.0</v>
       </c>
       <c r="G7" t="n" s="9">
-        <v>1.247743824409842</v>
+        <v>1.2477495585489107</v>
       </c>
       <c r="H7" t="n" s="10">
-        <v>51380.0</v>
+        <v>51463.0</v>
       </c>
       <c r="I7" t="n" s="10">
-        <v>35365.0</v>
+        <v>35423.0</v>
       </c>
       <c r="J7" t="n" s="10">
-        <v>72267.0</v>
+        <v>72424.0</v>
       </c>
     </row>
     <row r="8">
@@ -690,31 +690,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>156851.0</v>
+        <v>157169.0</v>
       </c>
       <c r="C8" t="n" s="7">
-        <v>0.4721908032448709</v>
+        <v>0.47217398825406787</v>
       </c>
       <c r="D8" t="n" s="6">
-        <v>247653.0</v>
+        <v>248137.0</v>
       </c>
       <c r="E8" t="n" s="7">
-        <v>0.7455449375267101</v>
+        <v>0.7454640350412589</v>
       </c>
       <c r="F8" t="n" s="6">
-        <v>253061.0</v>
+        <v>253593.0</v>
       </c>
       <c r="G8" t="n" s="7">
-        <v>0.7618254066595066</v>
+        <v>0.7618551890214599</v>
       </c>
       <c r="H8" t="n" s="6">
-        <v>46559.0</v>
+        <v>46638.0</v>
       </c>
       <c r="I8" t="n" s="6">
-        <v>66017.0</v>
+        <v>66139.0</v>
       </c>
       <c r="J8" t="n" s="6">
-        <v>71031.0</v>
+        <v>71164.0</v>
       </c>
       <c r="M8" t="s" s="3">
         <v>4</v>
@@ -728,31 +728,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="8">
-        <v>686853.0</v>
+        <v>688250.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>2.067730966210922</v>
+        <v>2.067670771054484</v>
       </c>
       <c r="D9" t="n" s="8">
-        <v>301881.0</v>
+        <v>302390.0</v>
       </c>
       <c r="E9" t="n" s="9">
-        <v>0.908795174237747</v>
+        <v>0.9084532720075051</v>
       </c>
       <c r="F9" t="n" s="8">
-        <v>544726.0</v>
+        <v>545494.0</v>
       </c>
       <c r="G9" t="n" s="9">
-        <v>1.6398659076981692</v>
+        <v>1.638796948181031</v>
       </c>
       <c r="H9" t="n" s="10">
-        <v>84129.0</v>
+        <v>84297.0</v>
       </c>
       <c r="I9" t="n" s="10">
-        <v>14423.0</v>
+        <v>14444.0</v>
       </c>
       <c r="J9" t="n" s="10">
-        <v>43759.0</v>
+        <v>43832.0</v>
       </c>
     </row>
     <row r="10">
@@ -760,31 +760,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>487396.0</v>
+        <v>488636.0</v>
       </c>
       <c r="C10" t="n" s="7">
-        <v>1.4672772805932834</v>
+        <v>1.4679816562077423</v>
       </c>
       <c r="D10" t="n" s="6">
-        <v>371492.0</v>
+        <v>372327.0</v>
       </c>
       <c r="E10" t="n" s="7">
-        <v>1.118355036812284</v>
+        <v>1.1185610681792995</v>
       </c>
       <c r="F10" t="n" s="6">
-        <v>961392.0</v>
+        <v>963468.0</v>
       </c>
       <c r="G10" t="n" s="7">
-        <v>2.8942146413678773</v>
+        <v>2.8944927314875724</v>
       </c>
       <c r="H10" t="n" s="6">
-        <v>36194.0</v>
+        <v>36274.0</v>
       </c>
       <c r="I10" t="n" s="6">
-        <v>23297.0</v>
+        <v>23329.0</v>
       </c>
       <c r="J10" t="n" s="6">
-        <v>91395.0</v>
+        <v>91553.0</v>
       </c>
       <c r="M10" t="s" s="3">
         <v>5</v>
@@ -798,31 +798,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="8">
-        <v>206869.0</v>
+        <v>207163.0</v>
       </c>
       <c r="C11" t="n" s="9">
-        <v>0.6227670800725733</v>
+        <v>0.6223681510264585</v>
       </c>
       <c r="D11" t="n" s="8">
-        <v>156792.0</v>
+        <v>156996.0</v>
       </c>
       <c r="E11" t="n" s="9">
-        <v>0.4720131871799976</v>
+        <v>0.4716542540827748</v>
       </c>
       <c r="F11" t="n" s="8">
-        <v>739725.0</v>
+        <v>741062.0</v>
       </c>
       <c r="G11" t="n" s="9">
-        <v>2.22689904387165</v>
+        <v>2.226330892755798</v>
       </c>
       <c r="H11" t="n" s="10">
-        <v>22909.0</v>
+        <v>22966.0</v>
       </c>
       <c r="I11" t="n" s="10">
-        <v>25208.0</v>
+        <v>25250.0</v>
       </c>
       <c r="J11" t="n" s="10">
-        <v>108497.0</v>
+        <v>108711.0</v>
       </c>
     </row>
     <row r="12">
@@ -830,31 +830,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>157232.0</v>
+        <v>157582.0</v>
       </c>
       <c r="C12" t="n" s="7">
-        <v>0.4733377815621038</v>
+        <v>0.47341474092888874</v>
       </c>
       <c r="D12" t="n" s="6">
-        <v>273811.0</v>
+        <v>274373.0</v>
       </c>
       <c r="E12" t="n" s="7">
-        <v>0.8242920735429251</v>
+        <v>0.824283374451917</v>
       </c>
       <c r="F12" t="n" s="6">
-        <v>743478.0</v>
+        <v>744991.0</v>
       </c>
       <c r="G12" t="n" s="7">
-        <v>2.2381972318626606</v>
+        <v>2.2381345665073025</v>
       </c>
       <c r="H12" t="n" s="6">
-        <v>22409.0</v>
+        <v>22456.0</v>
       </c>
       <c r="I12" t="n" s="6">
-        <v>32211.0</v>
+        <v>32266.0</v>
       </c>
       <c r="J12" t="n" s="6">
-        <v>104119.0</v>
+        <v>104300.0</v>
       </c>
       <c r="M12" t="s" s="3">
         <v>7</v>
@@ -868,31 +868,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="8">
-        <v>477737.0</v>
+        <v>478947.0</v>
       </c>
       <c r="C13" t="n" s="9">
-        <v>1.4381994234642743</v>
+        <v>1.4388735383715683</v>
       </c>
       <c r="D13" t="n" s="8">
-        <v>187643.0</v>
+        <v>187982.0</v>
       </c>
       <c r="E13" t="n" s="9">
-        <v>0.5648883264580864</v>
+        <v>0.5647437513757559</v>
       </c>
       <c r="F13" t="n" s="8">
-        <v>626500.0</v>
+        <v>627829.0</v>
       </c>
       <c r="G13" t="n" s="9">
-        <v>1.886041773612611</v>
+        <v>1.8861513585475707</v>
       </c>
       <c r="H13" t="n" s="10">
-        <v>51579.0</v>
+        <v>51701.0</v>
       </c>
       <c r="I13" t="n" s="10">
-        <v>12526.0</v>
+        <v>12547.0</v>
       </c>
       <c r="J13" t="n" s="10">
-        <v>86353.0</v>
+        <v>86498.0</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>1043834.0</v>
+        <v>1046150.0</v>
       </c>
       <c r="C14" t="n" s="7">
-        <v>3.1424014823896984</v>
+        <v>3.1428896144404623</v>
       </c>
       <c r="D14" t="n" s="6">
-        <v>1033444.0</v>
+        <v>1036400.0</v>
       </c>
       <c r="E14" t="n" s="7">
-        <v>3.1111229923213264</v>
+        <v>3.1135982377346414</v>
       </c>
       <c r="F14" t="n" s="6">
-        <v>410248.0</v>
+        <v>411270.0</v>
       </c>
       <c r="G14" t="n" s="7">
-        <v>1.2350277183416223</v>
+        <v>1.235555333107995</v>
       </c>
       <c r="H14" t="n" s="6">
-        <v>68563.0</v>
+        <v>68680.0</v>
       </c>
       <c r="I14" t="n" s="6">
-        <v>63137.0</v>
+        <v>63264.0</v>
       </c>
       <c r="J14" t="n" s="6">
-        <v>14286.0</v>
+        <v>14316.0</v>
       </c>
     </row>
     <row r="15">
@@ -932,31 +932,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="8">
-        <v>619416.0</v>
+        <v>620465.0</v>
       </c>
       <c r="C15" t="n" s="9">
-        <v>1.8647158040607008</v>
+        <v>1.864028107464323</v>
       </c>
       <c r="D15" t="n" s="8">
-        <v>689217.0</v>
+        <v>690914.0</v>
       </c>
       <c r="E15" t="n" s="9">
-        <v>2.0748476505729654</v>
+        <v>2.0756740764436437</v>
       </c>
       <c r="F15" t="n" s="8">
-        <v>604792.0</v>
+        <v>606174.0</v>
       </c>
       <c r="G15" t="n" s="9">
-        <v>1.8206911035063338</v>
+        <v>1.8210944598230014</v>
       </c>
       <c r="H15" t="n" s="10">
-        <v>49112.0</v>
+        <v>49183.0</v>
       </c>
       <c r="I15" t="n" s="10">
-        <v>57551.0</v>
+        <v>57664.0</v>
       </c>
       <c r="J15" t="n" s="10">
-        <v>47979.0</v>
+        <v>48072.0</v>
       </c>
     </row>
     <row r="16">
@@ -964,31 +964,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>677994.0</v>
+        <v>679658.0</v>
       </c>
       <c r="C16" t="n" s="7">
-        <v>2.041061462503924</v>
+        <v>2.041858308628185</v>
       </c>
       <c r="D16" t="n" s="6">
-        <v>794091.0</v>
+        <v>796092.0</v>
       </c>
       <c r="E16" t="n" s="7">
-        <v>2.390564721547984</v>
+        <v>2.3916544271272153</v>
       </c>
       <c r="F16" t="n" s="6">
-        <v>326221.0</v>
+        <v>326894.0</v>
       </c>
       <c r="G16" t="n" s="7">
-        <v>0.9820693271024413</v>
+        <v>0.9820692612177035</v>
       </c>
       <c r="H16" t="n" s="6">
-        <v>65235.0</v>
+        <v>65364.0</v>
       </c>
       <c r="I16" t="n" s="6">
-        <v>56003.0</v>
+        <v>56128.0</v>
       </c>
       <c r="J16" t="n" s="6">
-        <v>25141.0</v>
+        <v>25155.0</v>
       </c>
     </row>
     <row r="17">
@@ -996,31 +996,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="8">
-        <v>1530138.0</v>
+        <v>1533303.0</v>
       </c>
       <c r="C17" t="n" s="9">
-        <v>4.606391360561936</v>
+        <v>4.606415977145155</v>
       </c>
       <c r="D17" t="n" s="8">
-        <v>878279.0</v>
+        <v>880431.0</v>
       </c>
       <c r="E17" t="n" s="9">
-        <v>2.644007793913344</v>
+        <v>2.6450293419982134</v>
       </c>
       <c r="F17" t="n" s="8">
-        <v>1334231.0</v>
+        <v>1337699.0</v>
       </c>
       <c r="G17" t="n" s="9">
-        <v>4.016624743254473</v>
+        <v>4.01877387979486</v>
       </c>
       <c r="H17" t="n" s="10">
-        <v>75758.0</v>
+        <v>75885.0</v>
       </c>
       <c r="I17" t="n" s="10">
-        <v>13579.0</v>
+        <v>13600.0</v>
       </c>
       <c r="J17" t="n" s="10">
-        <v>51541.0</v>
+        <v>51641.0</v>
       </c>
     </row>
     <row r="18">
@@ -1028,31 +1028,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>839379.0</v>
+        <v>841122.0</v>
       </c>
       <c r="C18" t="n" s="7">
-        <v>2.526901608768044</v>
+        <v>2.5269355238516376</v>
       </c>
       <c r="D18" t="n" s="6">
-        <v>810216.0</v>
+        <v>811578.0</v>
       </c>
       <c r="E18" t="n" s="7">
-        <v>2.439108095210399</v>
+        <v>2.438178146067353</v>
       </c>
       <c r="F18" t="n" s="6">
-        <v>518082.0</v>
+        <v>519126.0</v>
       </c>
       <c r="G18" t="n" s="7">
-        <v>1.5596556969780824</v>
+        <v>1.5595810485934325</v>
       </c>
       <c r="H18" t="n" s="6">
-        <v>58841.0</v>
+        <v>58972.0</v>
       </c>
       <c r="I18" t="n" s="6">
-        <v>64987.0</v>
+        <v>65089.0</v>
       </c>
       <c r="J18" t="n" s="6">
-        <v>24379.0</v>
+        <v>24419.0</v>
       </c>
     </row>
     <row r="19">
@@ -1060,31 +1060,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="8">
-        <v>249048.0</v>
+        <v>249407.0</v>
       </c>
       <c r="C19" t="n" s="9">
-        <v>0.7497445038063424</v>
+        <v>0.7492794246224275</v>
       </c>
       <c r="D19" t="n" s="8">
-        <v>359927.0</v>
+        <v>360600.0</v>
       </c>
       <c r="E19" t="n" s="9">
-        <v>1.0835392776553332</v>
+        <v>1.0833303015506675</v>
       </c>
       <c r="F19" t="n" s="8">
-        <v>319009.0</v>
+        <v>319386.0</v>
       </c>
       <c r="G19" t="n" s="9">
-        <v>0.9603580210030093</v>
+        <v>0.9595133990323391</v>
       </c>
       <c r="H19" t="n" s="10">
-        <v>46049.0</v>
+        <v>46121.0</v>
       </c>
       <c r="I19" t="n" s="10">
-        <v>78930.0</v>
+        <v>79100.0</v>
       </c>
       <c r="J19" t="n" s="10">
-        <v>59132.0</v>
+        <v>59205.0</v>
       </c>
     </row>
     <row r="20">
@@ -1092,31 +1092,31 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>216272.0</v>
+        <v>216709.0</v>
       </c>
       <c r="C20" t="n" s="7">
-        <v>0.6510742641065388</v>
+        <v>0.6510466620042806</v>
       </c>
       <c r="D20" t="n" s="6">
-        <v>650749.0</v>
+        <v>651953.0</v>
       </c>
       <c r="E20" t="n" s="7">
-        <v>1.9590419762755513</v>
+        <v>1.9586257351271834</v>
       </c>
       <c r="F20" t="n" s="6">
-        <v>163532.0</v>
+        <v>163857.0</v>
       </c>
       <c r="G20" t="n" s="7">
-        <v>0.49230356476044285</v>
+        <v>0.4922663705523786</v>
       </c>
       <c r="H20" t="n" s="6">
-        <v>30596.0</v>
+        <v>30658.0</v>
       </c>
       <c r="I20" t="n" s="6">
-        <v>101879.0</v>
+        <v>102066.0</v>
       </c>
       <c r="J20" t="n" s="6">
-        <v>26784.0</v>
+        <v>26839.0</v>
       </c>
     </row>
     <row r="21">
@@ -1124,31 +1124,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="8">
-        <v>488377.0</v>
+        <v>489596.0</v>
       </c>
       <c r="C21" t="n" s="9">
-        <v>1.4702305239770248</v>
+        <v>1.470865730221854</v>
       </c>
       <c r="D21" t="n" s="8">
-        <v>518136.0</v>
+        <v>519237.0</v>
       </c>
       <c r="E21" t="n" s="9">
-        <v>1.5598182608340683</v>
+        <v>1.5599145196513142</v>
       </c>
       <c r="F21" t="n" s="8">
-        <v>568352.0</v>
+        <v>569284.0</v>
       </c>
       <c r="G21" t="n" s="9">
-        <v>1.7109906051337185</v>
+        <v>1.7102679073432339</v>
       </c>
       <c r="H21" t="n" s="10">
-        <v>50081.0</v>
+        <v>50176.0</v>
       </c>
       <c r="I21" t="n" s="10">
-        <v>54096.0</v>
+        <v>54194.0</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>49531.0</v>
+        <v>49615.0</v>
       </c>
     </row>
     <row r="22">
@@ -1156,31 +1156,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>464377.0</v>
+        <v>465179.0</v>
       </c>
       <c r="C22" t="n" s="7">
-        <v>1.3979799213166852</v>
+        <v>1.3975111102191846</v>
       </c>
       <c r="D22" t="n" s="6">
-        <v>422505.0</v>
+        <v>423148.0</v>
       </c>
       <c r="E22" t="n" s="7">
-        <v>1.2719267032086132</v>
+        <v>1.2712397405450966</v>
       </c>
       <c r="F22" t="n" s="6">
-        <v>332944.0</v>
+        <v>333499.0</v>
       </c>
       <c r="G22" t="n" s="7">
-        <v>1.0023085271726688</v>
+        <v>1.0019122912835443</v>
       </c>
       <c r="H22" t="n" s="6">
-        <v>73746.0</v>
+        <v>73901.0</v>
       </c>
       <c r="I22" t="n" s="6">
-        <v>54675.0</v>
+        <v>54757.0</v>
       </c>
       <c r="J22" t="n" s="6">
-        <v>35787.0</v>
+        <v>35860.0</v>
       </c>
     </row>
     <row r="23">
@@ -1188,31 +1188,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="8">
-        <v>297547.0</v>
+        <v>297973.0</v>
       </c>
       <c r="C23" t="n" s="9">
-        <v>0.8957479195740008</v>
+        <v>0.8951835272988271</v>
       </c>
       <c r="D23" t="n" s="8">
-        <v>372480.0</v>
+        <v>372887.0</v>
       </c>
       <c r="E23" t="n" s="9">
-        <v>1.1213293532884683</v>
+        <v>1.1202434446875311</v>
       </c>
       <c r="F23" t="n" s="8">
-        <v>313329.0</v>
+        <v>313732.0</v>
       </c>
       <c r="G23" t="n" s="9">
-        <v>0.943258711706729</v>
+        <v>0.9425274047867277</v>
       </c>
       <c r="H23" t="n" s="10">
-        <v>66232.0</v>
+        <v>66362.0</v>
       </c>
       <c r="I23" t="n" s="10">
-        <v>68121.0</v>
+        <v>68235.0</v>
       </c>
       <c r="J23" t="n" s="10">
-        <v>62297.0</v>
+        <v>62432.0</v>
       </c>
     </row>
     <row r="24">
@@ -1220,31 +1220,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>143272.0</v>
+        <v>143613.0</v>
       </c>
       <c r="C24" t="n" s="7">
-        <v>0.4313120143480063</v>
+        <v>0.43144845977980034</v>
       </c>
       <c r="D24" t="n" s="6">
-        <v>312333.0</v>
+        <v>312942.0</v>
       </c>
       <c r="E24" t="n" s="7">
-        <v>0.9402603116963248</v>
+        <v>0.9401540522126149</v>
       </c>
       <c r="F24" t="n" s="6">
-        <v>158716.0</v>
+        <v>158996.0</v>
       </c>
       <c r="G24" t="n" s="7">
-        <v>0.47780527715993476</v>
+        <v>0.477662741612174</v>
       </c>
       <c r="H24" t="n" s="6">
-        <v>51352.0</v>
+        <v>51445.0</v>
       </c>
       <c r="I24" t="n" s="6">
-        <v>90895.0</v>
+        <v>91066.0</v>
       </c>
       <c r="J24" t="n" s="6">
-        <v>49956.0</v>
+        <v>50034.0</v>
       </c>
     </row>
     <row r="25">
@@ -1252,31 +1252,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="8">
-        <v>523408.0</v>
+        <v>524587.0</v>
       </c>
       <c r="C25" t="n" s="9">
-        <v>1.5756893098851226</v>
+        <v>1.575987223792457</v>
       </c>
       <c r="D25" t="n" s="8">
-        <v>341803.0</v>
+        <v>342214.0</v>
       </c>
       <c r="E25" t="n" s="9">
-        <v>1.0289780308796668</v>
+        <v>1.028094275692901</v>
       </c>
       <c r="F25" t="n" s="8">
-        <v>546850.0</v>
+        <v>547270.0</v>
       </c>
       <c r="G25" t="n" s="9">
-        <v>1.6462600860336092</v>
+        <v>1.6441324851071373</v>
       </c>
       <c r="H25" t="n" s="10">
-        <v>82840.0</v>
+        <v>83033.0</v>
       </c>
       <c r="I25" t="n" s="10">
-        <v>30352.0</v>
+        <v>30413.0</v>
       </c>
       <c r="J25" t="n" s="10">
-        <v>46447.0</v>
+        <v>46505.0</v>
       </c>
     </row>
     <row r="26">
@@ -1284,31 +1284,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>339602.0</v>
+        <v>340329.0</v>
       </c>
       <c r="C26" t="n" s="7">
-        <v>1.022352048527358</v>
+        <v>1.0224312761964423</v>
       </c>
       <c r="D26" t="n" s="6">
-        <v>214222.0</v>
+        <v>214696.0</v>
       </c>
       <c r="E26" t="n" s="7">
-        <v>0.6449028584626348</v>
+        <v>0.6449991193059403</v>
       </c>
       <c r="F26" t="n" s="6">
-        <v>346561.0</v>
+        <v>347352.0</v>
       </c>
       <c r="G26" t="n" s="7">
-        <v>1.043301712857079</v>
+        <v>1.0435300801559275</v>
       </c>
       <c r="H26" t="n" s="6">
-        <v>70433.0</v>
+        <v>70559.0</v>
       </c>
       <c r="I26" t="n" s="6">
-        <v>41880.0</v>
+        <v>41958.0</v>
       </c>
       <c r="J26" t="n" s="6">
-        <v>64037.0</v>
+        <v>64169.0</v>
       </c>
     </row>
     <row r="27">
@@ -1316,31 +1316,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="8">
-        <v>118736.0</v>
+        <v>118939.0</v>
       </c>
       <c r="C27" t="n" s="9">
-        <v>0.35744781489491934</v>
+        <v>0.357321749129603</v>
       </c>
       <c r="D27" t="n" s="8">
-        <v>99753.0</v>
+        <v>99944.0</v>
       </c>
       <c r="E27" t="n" s="9">
-        <v>0.30030059863236835</v>
+        <v>0.30025613881913454</v>
       </c>
       <c r="F27" t="n" s="8">
-        <v>224476.0</v>
+        <v>224772.0</v>
       </c>
       <c r="G27" t="n" s="9">
-        <v>0.6757719284492649</v>
+        <v>0.6752698794790534</v>
       </c>
       <c r="H27" t="n" s="10">
-        <v>59040.0</v>
+        <v>59158.0</v>
       </c>
       <c r="I27" t="n" s="10">
-        <v>58022.0</v>
+        <v>58139.0</v>
       </c>
       <c r="J27" t="n" s="10">
-        <v>87424.0</v>
+        <v>87592.0</v>
       </c>
     </row>
     <row r="28">
@@ -1348,31 +1348,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>99303.0</v>
+        <v>99536.0</v>
       </c>
       <c r="C28" t="n" s="7">
-        <v>0.298945899832487</v>
+        <v>0.29903040736313713</v>
       </c>
       <c r="D28" t="n" s="6">
-        <v>236030.0</v>
+        <v>236568.0</v>
       </c>
       <c r="E28" t="n" s="7">
-        <v>0.7105545727466632</v>
+        <v>0.7107079389274495</v>
       </c>
       <c r="F28" t="n" s="6">
-        <v>250349.0</v>
+        <v>250902.0</v>
       </c>
       <c r="G28" t="n" s="7">
-        <v>0.7536610885588882</v>
+        <v>0.7537707690506532</v>
       </c>
       <c r="H28" t="n" s="6">
-        <v>38814.0</v>
+        <v>38871.0</v>
       </c>
       <c r="I28" t="n" s="6">
-        <v>74140.0</v>
+        <v>74270.0</v>
       </c>
       <c r="J28" t="n" s="6">
-        <v>77642.0</v>
+        <v>77779.0</v>
       </c>
     </row>
     <row r="29">
@@ -1380,31 +1380,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="8">
-        <v>345374.0</v>
+        <v>346081.0</v>
       </c>
       <c r="C29" t="n" s="9">
-        <v>1.0397283184671697</v>
+        <v>1.0397116863309943</v>
       </c>
       <c r="D29" t="n" s="8">
-        <v>100304.0</v>
+        <v>100496.0</v>
       </c>
       <c r="E29" t="n" s="9">
-        <v>0.30195935205177865</v>
+        <v>0.3019144813772487</v>
       </c>
       <c r="F29" t="n" s="8">
-        <v>239349.0</v>
+        <v>239757.0</v>
       </c>
       <c r="G29" t="n" s="9">
-        <v>0.7205462290062327</v>
+        <v>0.7202884722930765</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>81197.0</v>
+        <v>81351.0</v>
       </c>
       <c r="I29" t="n" s="10">
-        <v>33808.0</v>
+        <v>33866.0</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>61451.0</v>
+        <v>61564.0</v>
       </c>
     </row>
     <row r="30">
@@ -1412,31 +1412,31 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>756068.0</v>
+        <v>756958.0</v>
       </c>
       <c r="C30" t="n" s="7">
-        <v>2.2760986938415635</v>
+        <v>2.2740863516394625</v>
       </c>
       <c r="D30" t="n" s="6">
-        <v>793830.0</v>
+        <v>795706.0</v>
       </c>
       <c r="E30" t="n" s="7">
-        <v>2.3897789962440528</v>
+        <v>2.3904947890340416</v>
       </c>
       <c r="F30" t="n" s="6">
-        <v>219250.0</v>
+        <v>219644.0</v>
       </c>
       <c r="G30" t="n" s="7">
-        <v>0.660039359719976</v>
+        <v>0.6598641174536739</v>
       </c>
       <c r="H30" t="n" s="6">
-        <v>50415.0</v>
+        <v>50480.0</v>
       </c>
       <c r="I30" t="n" s="6">
-        <v>80654.0</v>
+        <v>80837.0</v>
       </c>
       <c r="J30" t="n" s="6">
-        <v>10366.0</v>
+        <v>10391.0</v>
       </c>
     </row>
     <row r="31">
@@ -1444,31 +1444,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="8">
-        <v>338453.0</v>
+        <v>338847.0</v>
       </c>
       <c r="C31" t="n" s="9">
-        <v>1.0188930509249943</v>
+        <v>1.0179789869371576</v>
       </c>
       <c r="D31" t="n" s="8">
-        <v>483283.0</v>
+        <v>484295.0</v>
       </c>
       <c r="E31" t="n" s="9">
-        <v>1.4548953335623678</v>
+        <v>1.4549402340251816</v>
       </c>
       <c r="F31" t="n" s="8">
-        <v>319110.0</v>
+        <v>319521.0</v>
       </c>
       <c r="G31" t="n" s="9">
-        <v>0.9606620756225382</v>
+        <v>0.9599189719405735</v>
       </c>
       <c r="H31" t="n" s="10">
-        <v>39361.0</v>
+        <v>39421.0</v>
       </c>
       <c r="I31" t="n" s="10">
-        <v>87373.0</v>
+        <v>87564.0</v>
       </c>
       <c r="J31" t="n" s="10">
-        <v>39050.0</v>
+        <v>39115.0</v>
       </c>
     </row>
     <row r="32">
@@ -1476,31 +1476,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>216698.0</v>
+        <v>217077.0</v>
       </c>
       <c r="C32" t="n" s="7">
-        <v>0.6523567123037598</v>
+        <v>0.6521522237096901</v>
       </c>
       <c r="D32" t="n" s="6">
-        <v>590967.0</v>
+        <v>592148.0</v>
       </c>
       <c r="E32" t="n" s="7">
-        <v>1.779071745932201</v>
+        <v>1.7789569367793252</v>
       </c>
       <c r="F32" t="n" s="6">
-        <v>171050.0</v>
+        <v>171269.0</v>
       </c>
       <c r="G32" t="n" s="7">
-        <v>0.5149360660437943</v>
+        <v>0.5145338253363319</v>
       </c>
       <c r="H32" t="n" s="6">
-        <v>32856.0</v>
+        <v>32911.0</v>
       </c>
       <c r="I32" t="n" s="6">
-        <v>97319.0</v>
+        <v>97517.0</v>
       </c>
       <c r="J32" t="n" s="6">
-        <v>32166.0</v>
+        <v>32208.0</v>
       </c>
     </row>
     <row r="33">
@@ -1508,31 +1508,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="8">
-        <v>727180.0</v>
+        <v>728441.0</v>
       </c>
       <c r="C33" t="n" s="9">
-        <v>2.1891330517727345</v>
+        <v>2.188414332201525</v>
       </c>
       <c r="D33" t="n" s="8">
-        <v>762592.0</v>
+        <v>764237.0</v>
       </c>
       <c r="E33" t="n" s="9">
-        <v>2.2957388159980656</v>
+        <v>2.295954242002711</v>
       </c>
       <c r="F33" t="n" s="8">
-        <v>657739.0</v>
+        <v>658868.0</v>
       </c>
       <c r="G33" t="n" s="9">
-        <v>1.980084964300375</v>
+        <v>1.979400080760081</v>
       </c>
       <c r="H33" t="n" s="10">
-        <v>46617.0</v>
+        <v>46703.0</v>
       </c>
       <c r="I33" t="n" s="10">
-        <v>66356.0</v>
+        <v>66496.0</v>
       </c>
       <c r="J33" t="n" s="10">
-        <v>38098.0</v>
+        <v>38146.0</v>
       </c>
     </row>
     <row r="34">
@@ -1540,31 +1540,31 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>1100794.0</v>
+        <v>1103231.0</v>
       </c>
       <c r="C34" t="n" s="7">
-        <v>3.313876246036904</v>
+        <v>3.314374852773279</v>
       </c>
       <c r="D34" t="n" s="6">
-        <v>618626.0</v>
+        <v>619988.0</v>
       </c>
       <c r="E34" t="n" s="7">
-        <v>1.8623375550564643</v>
+        <v>1.8625950831885614</v>
       </c>
       <c r="F34" t="n" s="6">
-        <v>533229.0</v>
+        <v>534499.0</v>
       </c>
       <c r="G34" t="n" s="7">
-        <v>1.6052548585820892</v>
+        <v>1.6057652879881594</v>
       </c>
       <c r="H34" t="n" s="6">
-        <v>87592.0</v>
+        <v>87751.0</v>
       </c>
       <c r="I34" t="n" s="6">
-        <v>42227.0</v>
+        <v>42293.0</v>
       </c>
       <c r="J34" t="n" s="6">
-        <v>21989.0</v>
+        <v>22031.0</v>
       </c>
     </row>
     <row r="35">
@@ -1572,31 +1572,31 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="8">
-        <v>284414.0</v>
+        <v>284928.0</v>
       </c>
       <c r="C35" t="n" s="9">
-        <v>0.8562117877099075</v>
+        <v>0.8559931673883211</v>
       </c>
       <c r="D35" t="n" s="8">
-        <v>275873.0</v>
+        <v>276406.0</v>
       </c>
       <c r="E35" t="n" s="9">
-        <v>0.8304996044881594</v>
+        <v>0.8303910020255512</v>
       </c>
       <c r="F35" t="n" s="8">
-        <v>214891.0</v>
+        <v>215294.0</v>
       </c>
       <c r="G35" t="n" s="9">
-        <v>0.6469168440117917</v>
+        <v>0.6467956570772307</v>
       </c>
       <c r="H35" t="n" s="10">
-        <v>54070.0</v>
+        <v>54163.0</v>
       </c>
       <c r="I35" t="n" s="10">
-        <v>65782.0</v>
+        <v>65928.0</v>
       </c>
       <c r="J35" t="n" s="10">
-        <v>53352.0</v>
+        <v>53449.0</v>
       </c>
     </row>
     <row r="36">
@@ -1604,31 +1604,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="6">
-        <v>374614.0</v>
+        <v>375351.0</v>
       </c>
       <c r="C36" t="n" s="7">
-        <v>1.1277536360416833</v>
+        <v>1.127645901323751</v>
       </c>
       <c r="D36" t="n" s="6">
-        <v>462561.0</v>
+        <v>463533.0</v>
       </c>
       <c r="E36" t="n" s="7">
-        <v>1.3925129590487197</v>
+        <v>1.392566124982489</v>
       </c>
       <c r="F36" t="n" s="6">
-        <v>211165.0</v>
+        <v>211675.0</v>
       </c>
       <c r="G36" t="n" s="7">
-        <v>0.6356999379487741</v>
+        <v>0.635923298892783</v>
       </c>
       <c r="H36" t="n" s="6">
-        <v>59410.0</v>
+        <v>59501.0</v>
       </c>
       <c r="I36" t="n" s="6">
-        <v>85055.0</v>
+        <v>85219.0</v>
       </c>
       <c r="J36" t="n" s="6">
-        <v>33580.0</v>
+        <v>33639.0</v>
       </c>
     </row>
     <row r="37">
@@ -1636,31 +1636,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="8">
-        <v>870454.0</v>
+        <v>872674.0</v>
       </c>
       <c r="C37" t="n" s="9">
-        <v>2.6204510870042963</v>
+        <v>2.6217254231154388</v>
       </c>
       <c r="D37" t="n" s="8">
-        <v>455339.0</v>
+        <v>456464.0</v>
       </c>
       <c r="E37" t="n" s="9">
-        <v>1.3707715485315126</v>
+        <v>1.3713291258098277</v>
       </c>
       <c r="F37" t="n" s="8">
-        <v>479608.0</v>
+        <v>480722.0</v>
       </c>
       <c r="G37" t="n" s="9">
-        <v>1.4438319600300034</v>
+        <v>1.4442060710539102</v>
       </c>
       <c r="H37" t="n" s="10">
-        <v>68666.0</v>
+        <v>68814.0</v>
       </c>
       <c r="I37" t="n" s="10">
-        <v>44360.0</v>
+        <v>44423.0</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>41858.0</v>
+        <v>41924.0</v>
       </c>
     </row>
     <row r="38">
@@ -1668,31 +1668,31 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="6">
-        <v>607059.0</v>
+        <v>608120.0</v>
       </c>
       <c r="C38" t="n" s="7">
-        <v>1.8275157750159583</v>
+        <v>1.8269407181891066</v>
       </c>
       <c r="D38" t="n" s="6">
-        <v>196642.0</v>
+        <v>196982.0</v>
       </c>
       <c r="E38" t="n" s="7">
-        <v>0.5919792920139362</v>
+        <v>0.5917819452580521</v>
       </c>
       <c r="F38" t="n" s="6">
-        <v>211716.0</v>
+        <v>212124.0</v>
       </c>
       <c r="G38" t="n" s="7">
-        <v>0.6373586913681843</v>
+        <v>0.637272204343133</v>
       </c>
       <c r="H38" t="n" s="6">
-        <v>101068.0</v>
+        <v>101259.0</v>
       </c>
       <c r="I38" t="n" s="6">
-        <v>25028.0</v>
+        <v>25072.0</v>
       </c>
       <c r="J38" t="n" s="6">
-        <v>28147.0</v>
+        <v>28203.0</v>
       </c>
     </row>
     <row r="39">
@@ -1700,31 +1700,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="8">
-        <v>390191.0</v>
+        <v>390655.0</v>
       </c>
       <c r="C39" t="n" s="9">
-        <v>1.1746472876100211</v>
+        <v>1.1736228478987132</v>
       </c>
       <c r="D39" t="n" s="8">
-        <v>192320.0</v>
+        <v>192546.0</v>
       </c>
       <c r="E39" t="n" s="9">
-        <v>0.5789681626515201</v>
+        <v>0.5784551199178448</v>
       </c>
       <c r="F39" t="n" s="8">
-        <v>161633.0</v>
+        <v>161934.0</v>
       </c>
       <c r="G39" t="n" s="9">
-        <v>0.48658673582494355</v>
+        <v>0.4864892097928613</v>
       </c>
       <c r="H39" t="n" s="10">
-        <v>84797.0</v>
+        <v>84947.0</v>
       </c>
       <c r="I39" t="n" s="10">
-        <v>41610.0</v>
+        <v>41686.0</v>
       </c>
       <c r="J39" t="n" s="10">
-        <v>58726.0</v>
+        <v>58843.0</v>
       </c>
     </row>
     <row r="40">
@@ -1732,31 +1732,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="6">
-        <v>159977.0</v>
+        <v>160294.0</v>
       </c>
       <c r="C40" t="n" s="7">
-        <v>0.4816014442413801</v>
+        <v>0.481562250018754</v>
       </c>
       <c r="D40" t="n" s="6">
-        <v>141370.0</v>
+        <v>141645.0</v>
       </c>
       <c r="E40" t="n" s="7">
-        <v>0.4255861540871745</v>
+        <v>0.4255361080508716</v>
       </c>
       <c r="F40" t="n" s="6">
-        <v>106608.0</v>
+        <v>106799.0</v>
       </c>
       <c r="G40" t="n" s="7">
-        <v>0.3209371770172278</v>
+        <v>0.32085022982615014</v>
       </c>
       <c r="H40" t="n" s="6">
-        <v>78688.0</v>
+        <v>78854.0</v>
       </c>
       <c r="I40" t="n" s="6">
-        <v>73039.0</v>
+        <v>73181.0</v>
       </c>
       <c r="J40" t="n" s="6">
-        <v>60093.0</v>
+        <v>60202.0</v>
       </c>
     </row>
     <row r="41">
@@ -1764,31 +1764,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="8">
-        <v>725639.0</v>
+        <v>727305.0</v>
       </c>
       <c r="C41" t="n" s="9">
-        <v>2.1844939609935854</v>
+        <v>2.185001511284826</v>
       </c>
       <c r="D41" t="n" s="8">
-        <v>180438.0</v>
+        <v>180623.0</v>
       </c>
       <c r="E41" t="n" s="9">
-        <v>0.5431980934510969</v>
+        <v>0.5426355215113317</v>
       </c>
       <c r="F41" t="n" s="8">
-        <v>199533.0</v>
+        <v>199844.0</v>
       </c>
       <c r="G41" t="n" s="9">
-        <v>0.6006824791927295</v>
+        <v>0.6003800909126222</v>
       </c>
       <c r="H41" t="n" s="10">
-        <v>106425.0</v>
+        <v>106644.0</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>23269.0</v>
+        <v>23294.0</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>23352.0</v>
+        <v>23387.0</v>
       </c>
     </row>
     <row r="42">
@@ -1796,31 +1796,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="6">
-        <v>788808.0</v>
+        <v>790619.0</v>
       </c>
       <c r="C42" t="n" s="7">
-        <v>2.3746605576373767</v>
+        <v>2.3752122010030146</v>
       </c>
       <c r="D42" t="n" s="6">
-        <v>283213.0</v>
+        <v>283889.0</v>
       </c>
       <c r="E42" t="n" s="7">
-        <v>0.8525962471351132</v>
+        <v>0.8528717581167982</v>
       </c>
       <c r="F42" t="n" s="6">
-        <v>432041.0</v>
+        <v>433036.0</v>
       </c>
       <c r="G42" t="n" s="7">
-        <v>1.3006342759989882</v>
+        <v>1.300945702890446</v>
       </c>
       <c r="H42" t="n" s="6">
-        <v>92615.0</v>
+        <v>92793.0</v>
       </c>
       <c r="I42" t="n" s="6">
-        <v>25264.0</v>
+        <v>25302.0</v>
       </c>
       <c r="J42" t="n" s="6">
-        <v>41943.0</v>
+        <v>42012.0</v>
       </c>
     </row>
     <row r="43">
@@ -1828,31 +1828,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="8">
-        <v>267369.0</v>
+        <v>267717.0</v>
       </c>
       <c r="C43" t="n" s="9">
-        <v>0.8048988076121789</v>
+        <v>0.8042871279540768</v>
       </c>
       <c r="D43" t="n" s="8">
-        <v>154199.0</v>
+        <v>154503.0</v>
       </c>
       <c r="E43" t="n" s="9">
-        <v>0.46420711165090334</v>
+        <v>0.46416467437737874</v>
       </c>
       <c r="F43" t="n" s="8">
-        <v>302215.0</v>
+        <v>302783.0</v>
       </c>
       <c r="G43" t="n" s="9">
-        <v>0.9098006617914368</v>
+        <v>0.909633939807032</v>
       </c>
       <c r="H43" t="n" s="10">
-        <v>61890.0</v>
+        <v>61983.0</v>
       </c>
       <c r="I43" t="n" s="10">
-        <v>39730.0</v>
+        <v>39815.0</v>
       </c>
       <c r="J43" t="n" s="10">
-        <v>80561.0</v>
+        <v>80747.0</v>
       </c>
     </row>
     <row r="44">
@@ -1860,31 +1860,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="6">
-        <v>341448.0</v>
+        <v>342093.0</v>
       </c>
       <c r="C44" t="n" s="7">
-        <v>1.0279093240486492</v>
+        <v>1.0277307621973724</v>
       </c>
       <c r="D44" t="n" s="6">
-        <v>349200.0</v>
+        <v>349952.0</v>
       </c>
       <c r="E44" t="n" s="7">
-        <v>1.051246268707939</v>
+        <v>1.0513411139441464</v>
       </c>
       <c r="F44" t="n" s="6">
-        <v>385539.0</v>
+        <v>386443.0</v>
       </c>
       <c r="G44" t="n" s="7">
-        <v>1.1606427124610252</v>
+        <v>1.1609689731617987</v>
       </c>
       <c r="H44" t="n" s="6">
-        <v>65738.0</v>
+        <v>65846.0</v>
       </c>
       <c r="I44" t="n" s="6">
-        <v>59098.0</v>
+        <v>59214.0</v>
       </c>
       <c r="J44" t="n" s="6">
-        <v>74757.0</v>
+        <v>74898.0</v>
       </c>
     </row>
     <row r="45">
@@ -1892,31 +1892,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="8">
-        <v>690001.0</v>
+        <v>691729.0</v>
       </c>
       <c r="C45" t="n" s="9">
-        <v>2.0772078369265365</v>
+        <v>2.0781225351118735</v>
       </c>
       <c r="D45" t="n" s="8">
-        <v>243024.0</v>
+        <v>243490.0</v>
       </c>
       <c r="E45" t="n" s="9">
-        <v>0.7316096025385971</v>
+        <v>0.7315033142667</v>
       </c>
       <c r="F45" t="n" s="8">
-        <v>275693.0</v>
+        <v>276251.0</v>
       </c>
       <c r="G45" t="n" s="9">
-        <v>0.8299577249682067</v>
+        <v>0.8299253442420228</v>
       </c>
       <c r="H45" t="n" s="10">
-        <v>100060.0</v>
+        <v>100249.0</v>
       </c>
       <c r="I45" t="n" s="10">
-        <v>27934.0</v>
+        <v>27961.0</v>
       </c>
       <c r="J45" t="n" s="10">
-        <v>33719.0</v>
+        <v>33766.0</v>
       </c>
     </row>
     <row r="46">
@@ -1924,31 +1924,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="6">
-        <v>679233.0</v>
+        <v>680818.0</v>
       </c>
       <c r="C46" t="n" s="7">
-        <v>2.044791399866264</v>
+        <v>2.0453432313952367</v>
       </c>
       <c r="D46" t="n" s="6">
-        <v>515534.0</v>
+        <v>516847.0</v>
       </c>
       <c r="E46" t="n" s="7">
-        <v>1.5519850913289763</v>
+        <v>1.5527343770536823</v>
       </c>
       <c r="F46" t="n" s="6">
-        <v>140205.0</v>
+        <v>140512.0</v>
       </c>
       <c r="G46" t="n" s="7">
-        <v>0.4220789894163705</v>
+        <v>0.42213229986546696</v>
       </c>
       <c r="H46" t="n" s="6">
-        <v>85224.0</v>
+        <v>85364.0</v>
       </c>
       <c r="I46" t="n" s="6">
-        <v>54934.0</v>
+        <v>55047.0</v>
       </c>
       <c r="J46" t="n" s="6">
-        <v>12455.0</v>
+        <v>12472.0</v>
       </c>
     </row>
     <row r="47">
@@ -1956,31 +1956,31 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="8">
-        <v>234470.0</v>
+        <v>234861.0</v>
       </c>
       <c r="C47" t="n" s="9">
-        <v>0.7058582835737413</v>
+        <v>0.7055796948211074</v>
       </c>
       <c r="D47" t="n" s="8">
-        <v>308323.0</v>
+        <v>308982.0</v>
       </c>
       <c r="E47" t="n" s="9">
-        <v>0.9281884401684932</v>
+        <v>0.9282572469044048</v>
       </c>
       <c r="F47" t="n" s="8">
-        <v>188542.0</v>
+        <v>188901.0</v>
       </c>
       <c r="G47" t="n" s="9">
-        <v>0.5675947136160716</v>
+        <v>0.5675046513955148</v>
       </c>
       <c r="H47" t="n" s="10">
-        <v>54939.0</v>
+        <v>55018.0</v>
       </c>
       <c r="I47" t="n" s="10">
-        <v>76118.0</v>
+        <v>76282.0</v>
       </c>
       <c r="J47" t="n" s="10">
-        <v>40177.0</v>
+        <v>40241.0</v>
       </c>
     </row>
     <row r="48">
@@ -1988,31 +1988,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="6">
-        <v>242213.0</v>
+        <v>242666.0</v>
       </c>
       <c r="C48" t="n" s="7">
-        <v>0.7291681342570332</v>
+        <v>0.7290278174045876</v>
       </c>
       <c r="D48" t="n" s="6">
-        <v>432217.0</v>
+        <v>433174.0</v>
       </c>
       <c r="E48" t="n" s="7">
-        <v>1.3011641137518304</v>
+        <v>1.3013602885299747</v>
       </c>
       <c r="F48" t="n" s="6">
-        <v>114985.0</v>
+        <v>115189.0</v>
       </c>
       <c r="G48" t="n" s="7">
-        <v>0.34615564778746377</v>
+        <v>0.34605583501197956</v>
       </c>
       <c r="H48" t="n" s="6">
-        <v>53799.0</v>
+        <v>53883.0</v>
       </c>
       <c r="I48" t="n" s="6">
-        <v>93414.0</v>
+        <v>93595.0</v>
       </c>
       <c r="J48" t="n" s="6">
-        <v>32428.0</v>
+        <v>32480.0</v>
       </c>
     </row>
     <row r="49">
@@ -2020,31 +2020,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="8">
-        <v>686760.0</v>
+        <v>688102.0</v>
       </c>
       <c r="C49" t="n" s="9">
-        <v>2.067450995125613</v>
+        <v>2.0672261429773084</v>
       </c>
       <c r="D49" t="n" s="8">
-        <v>510089.0</v>
+        <v>511338.0</v>
       </c>
       <c r="E49" t="n" s="9">
-        <v>1.5355932358504119</v>
+        <v>1.5361839981539525</v>
       </c>
       <c r="F49" t="n" s="8">
-        <v>415718.0</v>
+        <v>416569.0</v>
       </c>
       <c r="G49" t="n" s="9">
-        <v>1.2514948348646247</v>
+        <v>1.251474820817138</v>
       </c>
       <c r="H49" t="n" s="10">
-        <v>78073.0</v>
+        <v>78198.0</v>
       </c>
       <c r="I49" t="n" s="10">
-        <v>47665.0</v>
+        <v>47772.0</v>
       </c>
       <c r="J49" t="n" s="10">
-        <v>30884.0</v>
+        <v>30929.0</v>
       </c>
     </row>
     <row r="50">
@@ -2055,28 +2055,28 @@
         <v>403.0</v>
       </c>
       <c r="C50" t="n" s="7">
-        <v>0.0012132080363381997</v>
+        <v>0.0012107102371739294</v>
       </c>
       <c r="D50" t="n" s="6">
-        <v>1244993.0</v>
+        <v>1247420.0</v>
       </c>
       <c r="E50" t="n" s="7">
-        <v>3.747978939912666</v>
+        <v>3.7475537569615462</v>
       </c>
       <c r="F50" t="n" s="6">
-        <v>1001142.0</v>
+        <v>1003564.0</v>
       </c>
       <c r="G50" t="n" s="7">
-        <v>3.0138797020240644</v>
+        <v>3.014950889476966</v>
       </c>
       <c r="H50" t="n" s="6">
-        <v>1491.0</v>
+        <v>1499.0</v>
       </c>
       <c r="I50" t="n" s="6">
-        <v>79990.0</v>
+        <v>80139.0</v>
       </c>
       <c r="J50" t="n" s="6">
-        <v>54789.0</v>
+        <v>54897.0</v>
       </c>
     </row>
     <row r="51">
@@ -2084,31 +2084,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="8">
-        <v>296699.0</v>
+        <v>297212.0</v>
       </c>
       <c r="C51" t="n" s="9">
-        <v>0.8931950649466688</v>
+        <v>0.8928972977938907</v>
       </c>
       <c r="D51" t="n" s="8">
-        <v>601910.0</v>
+        <v>603024.0</v>
       </c>
       <c r="E51" t="n" s="9">
-        <v>1.812015010303538</v>
+        <v>1.8116310919641978</v>
       </c>
       <c r="F51" t="n" s="8">
-        <v>630610.0</v>
+        <v>631949.0</v>
       </c>
       <c r="G51" t="n" s="9">
-        <v>1.898414689318194</v>
+        <v>1.898528842858133</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>15479.0</v>
+        <v>15507.0</v>
       </c>
       <c r="I51" t="n" s="10">
-        <v>62425.0</v>
+        <v>62532.0</v>
       </c>
       <c r="J51" t="n" s="10">
-        <v>72150.0</v>
+        <v>72288.0</v>
       </c>
     </row>
     <row r="52">
@@ -2119,28 +2119,28 @@
         <v>227.0</v>
       </c>
       <c r="C52" t="n" s="7">
-        <v>6.833702834957105E-4</v>
+        <v>6.81963334586804E-4</v>
       </c>
       <c r="D52" t="n" s="6">
-        <v>1103552.0</v>
+        <v>1105860.0</v>
       </c>
       <c r="E52" t="n" s="7">
-        <v>3.3221790444592876</v>
+        <v>3.322273009630674</v>
       </c>
       <c r="F52" t="n" s="6">
-        <v>471368.0</v>
+        <v>472487.0</v>
       </c>
       <c r="G52" t="n" s="7">
-        <v>1.4190259197832866</v>
+        <v>1.419466123651609</v>
       </c>
       <c r="H52" t="n" s="6">
-        <v>2995.0</v>
+        <v>3006.0</v>
       </c>
       <c r="I52" t="n" s="6">
-        <v>106871.0</v>
+        <v>107059.0</v>
       </c>
       <c r="J52" t="n" s="6">
-        <v>26234.0</v>
+        <v>26292.0</v>
       </c>
     </row>
     <row r="53">
@@ -2148,31 +2148,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="8">
-        <v>892467.0</v>
+        <v>894783.0</v>
       </c>
       <c r="C53" t="n" s="9">
-        <v>2.686719941852715</v>
+        <v>2.6881462485091814</v>
       </c>
       <c r="D53" t="n" s="8">
-        <v>974548.0</v>
+        <v>977080.0</v>
       </c>
       <c r="E53" t="n" s="9">
-        <v>2.9338200133928534</v>
+        <v>2.935386497612663</v>
       </c>
       <c r="F53" t="n" s="8">
-        <v>1347580.0</v>
+        <v>1350958.0</v>
       </c>
       <c r="G53" t="n" s="9">
-        <v>4.056811130542509</v>
+        <v>4.058607147871012</v>
       </c>
       <c r="H53" t="n" s="10">
-        <v>25162.0</v>
+        <v>25202.0</v>
       </c>
       <c r="I53" t="n" s="10">
-        <v>38544.0</v>
+        <v>38608.0</v>
       </c>
       <c r="J53" t="n" s="10">
-        <v>77666.0</v>
+        <v>77817.0</v>
       </c>
     </row>
     <row r="54">
@@ -2180,31 +2180,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="6">
-        <v>586066.0</v>
+        <v>587316.0</v>
       </c>
       <c r="C54" t="n" s="7">
-        <v>1.764317570780604</v>
+        <v>1.7644404309082966</v>
       </c>
       <c r="D54" t="n" s="6">
-        <v>530424.0</v>
+        <v>531361.0</v>
       </c>
       <c r="E54" t="n" s="7">
-        <v>1.596810569396162</v>
+        <v>1.596337971054532</v>
       </c>
       <c r="F54" t="n" s="6">
-        <v>720816.0</v>
+        <v>722487.0</v>
       </c>
       <c r="G54" t="n" s="7">
-        <v>2.169974600300635</v>
+        <v>2.1705270648265036</v>
       </c>
       <c r="H54" t="n" s="6">
-        <v>50134.0</v>
+        <v>50227.0</v>
       </c>
       <c r="I54" t="n" s="6">
-        <v>36947.0</v>
+        <v>36996.0</v>
       </c>
       <c r="J54" t="n" s="6">
-        <v>66020.0</v>
+        <v>66153.0</v>
       </c>
     </row>
     <row r="55">
@@ -2212,31 +2212,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="8">
-        <v>376789.0</v>
+        <v>377489.0</v>
       </c>
       <c r="C55" t="n" s="9">
-        <v>1.1343013469077765</v>
+        <v>1.1340689744926786</v>
       </c>
       <c r="D55" t="n" s="8">
-        <v>472473.0</v>
+        <v>473121.0</v>
       </c>
       <c r="E55" t="n" s="9">
-        <v>1.4223524579474398</v>
+        <v>1.4213708141984285</v>
       </c>
       <c r="F55" t="n" s="8">
-        <v>539170.0</v>
+        <v>540357.0</v>
       </c>
       <c r="G55" t="n" s="9">
-        <v>1.6231398931823005</v>
+        <v>1.6233641479617693</v>
       </c>
       <c r="H55" t="n" s="10">
-        <v>32178.0</v>
+        <v>32232.0</v>
       </c>
       <c r="I55" t="n" s="10">
-        <v>47475.0</v>
+        <v>47545.0</v>
       </c>
       <c r="J55" t="n" s="10">
-        <v>78027.0</v>
+        <v>78198.0</v>
       </c>
     </row>
     <row r="56">
@@ -2244,31 +2244,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="6">
-        <v>190209.0</v>
+        <v>190628.0</v>
       </c>
       <c r="C56" t="n" s="7">
-        <v>0.5726131200591877</v>
+        <v>0.572692980377151</v>
       </c>
       <c r="D56" t="n" s="6">
-        <v>359379.0</v>
+        <v>360059.0</v>
       </c>
       <c r="E56" t="n" s="7">
-        <v>1.0818895555612553</v>
+        <v>1.081705005673965</v>
       </c>
       <c r="F56" t="n" s="6">
-        <v>384630.0</v>
+        <v>385497.0</v>
       </c>
       <c r="G56" t="n" s="7">
-        <v>1.157906220885265</v>
+        <v>1.1581269585603928</v>
       </c>
       <c r="H56" t="n" s="6">
-        <v>31465.0</v>
+        <v>31519.0</v>
       </c>
       <c r="I56" t="n" s="6">
-        <v>64639.0</v>
+        <v>64759.0</v>
       </c>
       <c r="J56" t="n" s="6">
-        <v>73423.0</v>
+        <v>73567.0</v>
       </c>
     </row>
     <row r="57">
@@ -2276,31 +2276,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="8">
-        <v>694772.0</v>
+        <v>696244.0</v>
       </c>
       <c r="C57" t="n" s="9">
-        <v>2.091570654647056</v>
+        <v>2.0916866957094924</v>
       </c>
       <c r="D57" t="n" s="8">
-        <v>543027.0</v>
+        <v>544075.0</v>
       </c>
       <c r="E57" t="n" s="9">
-        <v>1.6347511671181727</v>
+        <v>1.6345339262789225</v>
       </c>
       <c r="F57" t="n" s="8">
-        <v>747184.0</v>
+        <v>748609.0</v>
       </c>
       <c r="G57" t="n" s="9">
-        <v>2.2493539290901277</v>
+        <v>2.2490039204479855</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>54331.0</v>
+        <v>54446.0</v>
       </c>
       <c r="I57" t="n" s="10">
-        <v>35172.0</v>
+        <v>35240.0</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>57264.0</v>
+        <v>57374.0</v>
       </c>
     </row>
     <row r="58">
@@ -2308,31 +2308,31 @@
         <v>74</v>
       </c>
       <c r="B58" t="n" s="6">
-        <v>196593.0</v>
+        <v>196807.0</v>
       </c>
       <c r="C58" t="n" s="7">
-        <v>0.5918317803668379</v>
+        <v>0.5912562025992296</v>
       </c>
       <c r="D58" t="n" s="6">
-        <v>569966.0</v>
+        <v>571278.0</v>
       </c>
       <c r="E58" t="n" s="7">
-        <v>1.715849458162626</v>
+        <v>1.7162583694100448</v>
       </c>
       <c r="F58" t="n" s="6">
-        <v>890282.0</v>
+        <v>892328.0</v>
       </c>
       <c r="G58" t="n" s="7">
-        <v>2.6801421265688465</v>
+        <v>2.680770830066844</v>
       </c>
       <c r="H58" t="n" s="6">
-        <v>26804.0</v>
+        <v>26823.0</v>
       </c>
       <c r="I58" t="n" s="6">
-        <v>50517.0</v>
+        <v>50629.0</v>
       </c>
       <c r="J58" t="n" s="6">
-        <v>66479.0</v>
+        <v>66618.0</v>
       </c>
     </row>
     <row r="59">
@@ -2340,31 +2340,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="8">
-        <v>117796.0</v>
+        <v>117977.0</v>
       </c>
       <c r="C59" t="n" s="9">
-        <v>0.354617999624056</v>
+        <v>0.354431666627962</v>
       </c>
       <c r="D59" t="n" s="8">
-        <v>268746.0</v>
+        <v>269258.0</v>
       </c>
       <c r="E59" t="n" s="9">
-        <v>0.8090441859398159</v>
+        <v>0.8089166675954786</v>
       </c>
       <c r="F59" t="n" s="8">
-        <v>616450.0</v>
+        <v>617757.0</v>
       </c>
       <c r="G59" t="n" s="9">
-        <v>1.8557868337485937</v>
+        <v>1.8558926153495166</v>
       </c>
       <c r="H59" t="n" s="10">
-        <v>18266.0</v>
+        <v>18288.0</v>
       </c>
       <c r="I59" t="n" s="10">
-        <v>40356.0</v>
+        <v>40421.0</v>
       </c>
       <c r="J59" t="n" s="10">
-        <v>100197.0</v>
+        <v>100396.0</v>
       </c>
     </row>
     <row r="60">
@@ -2372,31 +2372,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="6">
-        <v>431653.0</v>
+        <v>432623.0</v>
       </c>
       <c r="C60" t="n" s="7">
-        <v>1.2994662245893125</v>
+        <v>1.299704950215625</v>
       </c>
       <c r="D60" t="n" s="6">
-        <v>536447.0</v>
+        <v>537620.0</v>
       </c>
       <c r="E60" t="n" s="7">
-        <v>1.6149424602221296</v>
+        <v>1.6151415327777867</v>
       </c>
       <c r="F60" t="n" s="6">
-        <v>708260.0</v>
+        <v>709822.0</v>
       </c>
       <c r="G60" t="n" s="7">
-        <v>2.1321754933421673</v>
+        <v>2.132478317546583</v>
       </c>
       <c r="H60" t="n" s="6">
-        <v>30320.0</v>
+        <v>30365.0</v>
       </c>
       <c r="I60" t="n" s="6">
-        <v>54133.0</v>
+        <v>54215.0</v>
       </c>
       <c r="J60" t="n" s="6">
-        <v>71418.0</v>
+        <v>71549.0</v>
       </c>
     </row>
     <row r="61">
@@ -2404,31 +2404,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="8">
-        <v>253051.0</v>
+        <v>253584.0</v>
       </c>
       <c r="C61" t="n" s="9">
-        <v>0.7617953022417314</v>
+        <v>0.7618281508275775</v>
       </c>
       <c r="D61" t="n" s="8">
-        <v>328479.0</v>
+        <v>329203.0</v>
       </c>
       <c r="E61" t="n" s="9">
-        <v>0.9888669046360684</v>
+        <v>0.9890060600703949</v>
       </c>
       <c r="F61" t="n" s="8">
-        <v>697398.0</v>
+        <v>698874.0</v>
       </c>
       <c r="G61" t="n" s="9">
-        <v>2.0994760747548087</v>
+        <v>2.0995878568106523</v>
       </c>
       <c r="H61" t="n" s="10">
-        <v>27344.0</v>
+        <v>27378.0</v>
       </c>
       <c r="I61" t="n" s="10">
-        <v>35257.0</v>
+        <v>35317.0</v>
       </c>
       <c r="J61" t="n" s="10">
-        <v>96432.0</v>
+        <v>96614.0</v>
       </c>
     </row>
     <row r="62">
@@ -2436,31 +2436,31 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="6">
-        <v>1445868.0</v>
+        <v>1449458.0</v>
       </c>
       <c r="C62" t="n" s="7">
-        <v>4.35270143197082</v>
+        <v>4.354525158693919</v>
       </c>
       <c r="D62" t="n" s="6">
-        <v>1107892.0</v>
+        <v>1110005.0</v>
       </c>
       <c r="E62" t="n" s="7">
-        <v>3.3352443617736998</v>
+        <v>3.3347256000353545</v>
       </c>
       <c r="F62" t="n" s="6">
-        <v>522700.0</v>
+        <v>523995.0</v>
       </c>
       <c r="G62" t="n" s="7">
-        <v>1.5735579171066427</v>
+        <v>1.5742087114837549</v>
       </c>
       <c r="H62" t="n" s="6">
-        <v>83231.0</v>
+        <v>83403.0</v>
       </c>
       <c r="I62" t="n" s="6">
-        <v>44139.0</v>
+        <v>44189.0</v>
       </c>
       <c r="J62" t="n" s="6">
-        <v>10889.0</v>
+        <v>10916.0</v>
       </c>
     </row>
     <row r="63">
@@ -2468,31 +2468,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="8">
-        <v>712964.0</v>
+        <v>714443.0</v>
       </c>
       <c r="C63" t="n" s="9">
-        <v>2.146336611463594</v>
+        <v>2.14636092798326</v>
       </c>
       <c r="D63" t="n" s="8">
-        <v>910977.0</v>
+        <v>912759.0</v>
       </c>
       <c r="E63" t="n" s="9">
-        <v>2.742443219154502</v>
+        <v>2.742150534423421</v>
       </c>
       <c r="F63" t="n" s="8">
-        <v>735392.0</v>
+        <v>737081.0</v>
       </c>
       <c r="G63" t="n" s="9">
-        <v>2.213854799649681</v>
+        <v>2.214370998328529</v>
       </c>
       <c r="H63" t="n" s="10">
-        <v>36412.0</v>
+        <v>36476.0</v>
       </c>
       <c r="I63" t="n" s="10">
-        <v>65767.0</v>
+        <v>65878.0</v>
       </c>
       <c r="J63" t="n" s="10">
-        <v>41516.0</v>
+        <v>41603.0</v>
       </c>
     </row>
     <row r="64">
@@ -2500,31 +2500,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="6">
-        <v>566733.0</v>
+        <v>567958.0</v>
       </c>
       <c r="C64" t="n" s="7">
-        <v>1.706116699895923</v>
+        <v>1.7062842801112426</v>
       </c>
       <c r="D64" t="n" s="6">
-        <v>1095115.0</v>
+        <v>1097367.0</v>
       </c>
       <c r="E64" t="n" s="7">
-        <v>3.296779947182401</v>
+        <v>3.2967579673370806</v>
       </c>
       <c r="F64" t="n" s="6">
-        <v>406736.0</v>
+        <v>407573.0</v>
       </c>
       <c r="G64" t="n" s="7">
-        <v>1.2244550468189925</v>
+        <v>1.2244486439099007</v>
       </c>
       <c r="H64" t="n" s="6">
-        <v>31817.0</v>
+        <v>31873.0</v>
       </c>
       <c r="I64" t="n" s="6">
-        <v>93756.0</v>
+        <v>93925.0</v>
       </c>
       <c r="J64" t="n" s="6">
-        <v>19592.0</v>
+        <v>19628.0</v>
       </c>
     </row>
     <row r="65">
@@ -2532,31 +2532,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="8">
-        <v>1415931.0</v>
+        <v>1418608.0</v>
       </c>
       <c r="C65" t="n" s="9">
-        <v>4.262577836477378</v>
+        <v>4.261844238552937</v>
       </c>
       <c r="D65" t="n" s="8">
-        <v>1246025.0</v>
+        <v>1248323.0</v>
       </c>
       <c r="E65" t="n" s="9">
-        <v>3.7510857158270605</v>
+        <v>3.75026658908107</v>
       </c>
       <c r="F65" t="n" s="8">
-        <v>1732157.0</v>
+        <v>1735680.0</v>
       </c>
       <c r="G65" t="n" s="9">
-        <v>5.214557798013566</v>
+        <v>5.214405817513762</v>
       </c>
       <c r="H65" t="n" s="10">
-        <v>39769.0</v>
+        <v>39812.0</v>
       </c>
       <c r="I65" t="n" s="10">
-        <v>26779.0</v>
+        <v>26825.0</v>
       </c>
       <c r="J65" t="n" s="10">
-        <v>79019.0</v>
+        <v>79194.0</v>
       </c>
     </row>
     <row r="67">
@@ -2564,31 +2564,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="8">
-        <v>3.3217716E7</v>
+        <v>3.3286247E7</v>
       </c>
       <c r="C67" t="n" s="9">
+        <v>100.00000000000003</v>
+      </c>
+      <c r="D67" t="n" s="8">
+        <v>3.3286247E7</v>
+      </c>
+      <c r="E67" t="n" s="9">
+        <v>100.00000000000003</v>
+      </c>
+      <c r="F67" t="n" s="8">
+        <v>3.3286247E7</v>
+      </c>
+      <c r="G67" t="n" s="9">
         <v>100.0</v>
       </c>
-      <c r="D67" t="n" s="8">
-        <v>3.3217716E7</v>
-      </c>
-      <c r="E67" t="n" s="9">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="F67" t="n" s="8">
-        <v>3.3217716E7</v>
-      </c>
-      <c r="G67" t="n" s="9">
-        <v>99.99999999999997</v>
-      </c>
       <c r="H67" t="n" s="8">
-        <v>2.9730334E7</v>
+        <v>2.9796376E7</v>
       </c>
       <c r="I67" t="n" s="8">
-        <v>2.9507382E7</v>
+        <v>2.9574213E7</v>
       </c>
       <c r="J67" t="n" s="8">
-        <v>2.9859968E7</v>
+        <v>2.9928206E7</v>
       </c>
     </row>
     <row r="68"/>
@@ -2597,16 +2597,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="15">
-        <v>5209884.0</v>
+        <v>5220657.0</v>
       </c>
       <c r="C71" t="n" s="16">
-        <v>10.449568497423693</v>
+        <v>10.449619357465313</v>
       </c>
       <c r="D71" t="n" s="15">
-        <v>5237401.0</v>
+        <v>5248291.0</v>
       </c>
       <c r="E71" t="n" s="16">
-        <v>10.50475989445741</v>
+        <v>10.50493131941267</v>
       </c>
     </row>
     <row r="72">
@@ -2614,16 +2614,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="13">
-        <v>2477712.0</v>
+        <v>2482080.0</v>
       </c>
       <c r="C72" t="n" s="14">
-        <v>4.969596494065636</v>
+        <v>4.968108652757212</v>
       </c>
       <c r="D72" t="n" s="13">
-        <v>2455475.0</v>
+        <v>2459938.0</v>
       </c>
       <c r="E72" t="n" s="14">
-        <v>4.9249952985923375</v>
+        <v>4.923789427837245</v>
       </c>
     </row>
     <row r="73">
@@ -2631,16 +2631,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="15">
-        <v>2686057.0</v>
+        <v>2691721.0</v>
       </c>
       <c r="C73" t="n" s="16">
-        <v>5.387478225903761</v>
+        <v>5.387724163164884</v>
       </c>
       <c r="D73" t="n" s="15">
-        <v>2704010.0</v>
+        <v>2709635.0</v>
       </c>
       <c r="E73" t="n" s="16">
-        <v>5.423486916929175</v>
+        <v>5.423580661910086</v>
       </c>
     </row>
     <row r="74">
@@ -2648,16 +2648,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="13">
-        <v>5051918.0</v>
+        <v>5063832.0</v>
       </c>
       <c r="C74" t="n" s="14">
-        <v>10.132732933087897</v>
+        <v>10.135719870152798</v>
       </c>
       <c r="D74" t="n" s="13">
-        <v>4889987.0</v>
+        <v>4901618.0</v>
       </c>
       <c r="E74" t="n" s="14">
-        <v>9.807944688981825</v>
+        <v>9.811033809671928</v>
       </c>
     </row>
     <row r="75">
@@ -2665,16 +2665,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="15">
-        <v>2829569.0</v>
+        <v>2835009.0</v>
       </c>
       <c r="C75" t="n" s="16">
-        <v>5.675323113467912</v>
+        <v>5.674528114945758</v>
       </c>
       <c r="D75" t="n" s="15">
-        <v>2871510.0</v>
+        <v>2876846.0</v>
       </c>
       <c r="E75" t="n" s="16">
-        <v>5.759445015673498</v>
+        <v>5.758268671940458</v>
       </c>
     </row>
     <row r="76">
@@ -2682,16 +2682,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="13">
-        <v>2110040.0</v>
+        <v>2113328.0</v>
       </c>
       <c r="C76" t="n" s="14">
-        <v>4.232149412981919</v>
+        <v>4.230018018320961</v>
       </c>
       <c r="D76" t="n" s="13">
-        <v>2119524.0</v>
+        <v>2122712.0</v>
       </c>
       <c r="E76" t="n" s="14">
-        <v>4.251171661390821</v>
+        <v>4.248800946992669</v>
       </c>
     </row>
     <row r="77">
@@ -2699,16 +2699,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="15">
-        <v>1313798.0</v>
+        <v>1316475.0</v>
       </c>
       <c r="C77" t="n" s="16">
-        <v>2.6351109147110097</v>
+        <v>2.6350443332360562</v>
       </c>
       <c r="D77" t="n" s="15">
-        <v>1300261.0</v>
+        <v>1302897.0</v>
       </c>
       <c r="E77" t="n" s="16">
-        <v>2.6079594831724906</v>
+        <v>2.6078667324789744</v>
       </c>
     </row>
     <row r="78">
@@ -2716,16 +2716,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="13">
-        <v>3004479.0</v>
+        <v>3009964.0</v>
       </c>
       <c r="C78" t="n" s="14">
-        <v>6.026143597356685</v>
+        <v>6.024716444630192</v>
       </c>
       <c r="D78" t="n" s="13">
-        <v>3031741.0</v>
+        <v>3037047.0</v>
       </c>
       <c r="E78" t="n" s="14">
-        <v>6.080823535792314</v>
+        <v>6.0789255300112535</v>
       </c>
     </row>
     <row r="79">
@@ -2733,16 +2733,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="15">
-        <v>2964449.0</v>
+        <v>2971000.0</v>
       </c>
       <c r="C79" t="n" s="16">
-        <v>5.945854626056773</v>
+        <v>5.9467264581889685</v>
       </c>
       <c r="D79" t="n" s="15">
-        <v>2917119.0</v>
+        <v>2923765.0</v>
       </c>
       <c r="E79" t="n" s="16">
-        <v>5.850923898811587</v>
+        <v>5.852181313708135</v>
       </c>
     </row>
     <row r="80">
@@ -2750,16 +2750,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="13">
-        <v>1656822.0</v>
+        <v>1659679.0</v>
       </c>
       <c r="C80" t="n" s="14">
-        <v>3.323121009419503</v>
+        <v>3.3219983242681286</v>
       </c>
       <c r="D80" t="n" s="13">
-        <v>1616304.0</v>
+        <v>1619192.0</v>
       </c>
       <c r="E80" t="n" s="14">
-        <v>3.2418532467632497</v>
+        <v>3.2409599149403947</v>
       </c>
     </row>
     <row r="81">
@@ -2767,16 +2767,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="15">
-        <v>2272262.0</v>
+        <v>2277230.0</v>
       </c>
       <c r="C81" t="n" s="16">
-        <v>4.557521321605808</v>
+        <v>4.558082764180971</v>
       </c>
       <c r="D81" t="n" s="15">
-        <v>2240488.0</v>
+        <v>2245275.0</v>
       </c>
       <c r="E81" t="n" s="16">
-        <v>4.493791574564004</v>
+        <v>4.49412192810846</v>
       </c>
     </row>
     <row r="82">
@@ -2784,16 +2784,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="13">
-        <v>2220761.0</v>
+        <v>2225590.0</v>
       </c>
       <c r="C82" t="n" s="14">
-        <v>4.45422473627189</v>
+        <v>4.454720611942372</v>
       </c>
       <c r="D82" t="n" s="13">
-        <v>2247528.0</v>
+        <v>2252369.0</v>
       </c>
       <c r="E82" t="n" s="14">
-        <v>4.507911843311228</v>
+        <v>4.50832121370065</v>
       </c>
     </row>
     <row r="83">
@@ -2801,16 +2801,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="15">
-        <v>4282971.0</v>
+        <v>4292816.0</v>
       </c>
       <c r="C83" t="n" s="16">
-        <v>8.590440562012368</v>
+        <v>8.592461288231886</v>
       </c>
       <c r="D83" t="n" s="15">
-        <v>4332946.0</v>
+        <v>4342659.0</v>
       </c>
       <c r="E83" t="n" s="16">
-        <v>8.690676418637727</v>
+        <v>8.692226581687125</v>
       </c>
     </row>
     <row r="84">
@@ -2818,16 +2818,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="13">
-        <v>3078462.0</v>
+        <v>3084415.0</v>
       </c>
       <c r="C84" t="n" s="14">
-        <v>6.174532779562067</v>
+        <v>6.173736886077054</v>
       </c>
       <c r="D84" t="n" s="13">
-        <v>3066477.0</v>
+        <v>3072828.0</v>
       </c>
       <c r="E84" t="n" s="14">
-        <v>6.150494225451912</v>
+        <v>6.1505444527310305</v>
       </c>
     </row>
     <row r="85">
@@ -2835,16 +2835,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="15">
-        <v>2749322.0</v>
+        <v>2755175.0</v>
       </c>
       <c r="C85" t="n" s="16">
-        <v>5.51437010122949</v>
+        <v>5.5147331098757295</v>
       </c>
       <c r="D85" t="n" s="15">
-        <v>2877049.0</v>
+        <v>2883227.0</v>
       </c>
       <c r="E85" t="n" s="16">
-        <v>5.770554698711975</v>
+        <v>5.771040823246317</v>
       </c>
     </row>
     <row r="86">
@@ -2852,16 +2852,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="13">
-        <v>5948902.0</v>
+        <v>5961289.0</v>
       </c>
       <c r="C86" t="n" s="14">
-        <v>11.931831674843586</v>
+        <v>11.932061602561717</v>
       </c>
       <c r="D86" t="n" s="13">
-        <v>5949588.0</v>
+        <v>5961961.0</v>
       </c>
       <c r="E86" t="n" s="14">
-        <v>11.933207598758443</v>
+        <v>11.933406671622606</v>
       </c>
     </row>
     <row r="88">
@@ -2869,13 +2869,13 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="15">
-        <v>4.9857408E7</v>
+        <v>4.996026E7</v>
       </c>
       <c r="C88" t="n" s="16">
-        <v>100.0</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="D88" t="n" s="15">
-        <v>4.9857408E7</v>
+        <v>4.996026E7</v>
       </c>
       <c r="E88" t="n" s="16">
         <v>100.0</v>
